--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,86 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
@@ -746,37 +753,43 @@
         <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>200</v>
-      </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,25 +800,25 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -817,27 +830,33 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>200</v>
-      </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -855,16 +874,22 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,34 +917,34 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -925,8 +952,14 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,35 +1025,41 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>200</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>200</v>
       </c>
       <c r="O14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>200</v>
+      </c>
+      <c r="R14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1055,10 +1100,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,13 +1123,15 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
@@ -1087,42 +1140,48 @@
         <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1131,7 +1190,7 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1146,22 +1205,28 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,31 +1243,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1220,24 +1287,30 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1252,22 +1325,28 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,11 +1365,11 @@
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1310,22 +1389,28 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1340,22 +1425,28 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,22 +1539,28 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1472,36 +1575,42 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1516,22 +1625,28 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,31 +1689,37 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1606,20 +1727,26 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,31 +1839,37 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1748,24 +1887,30 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -1774,28 +1919,34 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,22 +1989,28 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -1862,77 +2019,89 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,13 +2138,15 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2000,19 +2173,25 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,34 +2234,40 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2094,13 +2279,19 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,19 +2349,19 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2187,25 +2384,31 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -2214,13 +2417,13 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -2229,10 +2432,16 @@
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,25 +2534,31 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -2346,25 +2567,31 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
       </c>
       <c r="N49" s="3">
+        <v>200</v>
+      </c>
+      <c r="O49" s="3">
+        <v>200</v>
+      </c>
+      <c r="P49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3">
-        <v>200</v>
-      </c>
-      <c r="P49" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2490,13 +2729,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
-        <v>200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
-      </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>200</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,19 +2878,21 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
-        <v>500</v>
-      </c>
       <c r="F57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
@@ -2652,10 +2913,10 @@
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2690,51 +2957,57 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
-        <v>800</v>
-      </c>
       <c r="F59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
@@ -2743,60 +3016,72 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
         <v>1400</v>
       </c>
       <c r="F60" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2825,27 +3110,33 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2854,13 +3145,13 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -2878,13 +3169,19 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
         <v>1500</v>
       </c>
       <c r="F66" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G66" s="3">
         <v>1500</v>
       </c>
       <c r="H66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="E72" s="3">
         <v>-16300</v>
       </c>
       <c r="F72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-16300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-16200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-15900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-15000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,71 +3894,83 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -3590,28 +3979,34 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,22 +4055,28 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,19 +4319,25 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3913,16 +4346,16 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3934,10 +4367,16 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4103,35 +4562,41 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
-      </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,13 +4909,19 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4448,12 +4951,18 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>200</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>200</v>
-      </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -774,22 +778,25 @@
         <v>200</v>
       </c>
       <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>200</v>
-      </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,16 +813,16 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -824,42 +831,45 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -880,7 +890,7 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -935,10 +949,10 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -947,7 +961,7 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1031,11 +1051,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1043,14 +1063,14 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>200</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>200</v>
@@ -1058,13 +1078,16 @@
       <c r="R14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1094,22 +1117,25 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,16 +1151,17 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1146,13 +1173,13 @@
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1161,22 +1188,25 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1211,22 +1241,25 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,11 +1291,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1269,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1293,10 +1327,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,16 +1341,16 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
@@ -1331,22 +1368,25 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-400</v>
       </c>
       <c r="R21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1371,8 +1411,8 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1407,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1431,22 +1474,25 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1557,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1581,22 +1633,25 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1607,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1631,22 +1686,25 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,22 +1753,25 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1719,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1733,20 +1794,23 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,11 +1927,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1869,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1893,10 +1963,13 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1907,23 +1980,23 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
@@ -1931,22 +2004,25 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2007,23 +2086,23 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
@@ -2031,77 +2110,83 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,7 +2236,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2179,19 +2266,22 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,16 +2330,19 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -2258,7 +2351,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2267,10 +2360,10 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2285,13 +2378,16 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2299,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2340,19 +2436,22 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2361,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2390,22 +2489,25 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2414,19 +2516,19 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
@@ -2438,33 +2540,36 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2490,31 +2595,34 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2549,11 +2660,11 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
+        <v>500</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
@@ -2561,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2573,7 +2684,7 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -2582,16 +2693,19 @@
         <v>200</v>
       </c>
       <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3">
-        <v>200</v>
-      </c>
       <c r="R49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,13 +2807,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2735,13 +2855,16 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,34 +2925,34 @@
         <v>800</v>
       </c>
       <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
-        <v>200</v>
-      </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>200</v>
-      </c>
       <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
       </c>
       <c r="N54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
@@ -2835,13 +2961,16 @@
         <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,13 +3020,13 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
@@ -2919,7 +3050,7 @@
         <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2963,13 +3097,13 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -2978,24 +3112,27 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1000</v>
       </c>
       <c r="F59" s="3">
         <v>1000</v>
       </c>
       <c r="G59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
@@ -3004,13 +3141,13 @@
         <v>800</v>
       </c>
       <c r="J59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
@@ -3022,71 +3159,77 @@
         <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1000</v>
       </c>
       <c r="M60" s="3">
         <v>1000</v>
       </c>
       <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3116,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3128,10 +3271,13 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3151,10 +3297,10 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3175,13 +3321,16 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,7 +3497,7 @@
         <v>1100</v>
       </c>
       <c r="E66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F66" s="3">
         <v>1500</v>
@@ -3348,40 +3506,43 @@
         <v>1500</v>
       </c>
       <c r="H66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1400</v>
       </c>
       <c r="K66" s="3">
         <v>1400</v>
       </c>
       <c r="L66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1000</v>
       </c>
       <c r="O66" s="3">
         <v>1000</v>
       </c>
       <c r="P66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>700</v>
       </c>
       <c r="R66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="E72" s="3">
         <v>-16300</v>
       </c>
       <c r="F72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-16300</v>
       </c>
       <c r="H72" s="3">
         <v>-16300</v>
       </c>
       <c r="I72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-16200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,49 +3995,52 @@
         <v>-400</v>
       </c>
       <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1300</v>
       </c>
       <c r="H76" s="3">
         <v>-1300</v>
       </c>
       <c r="I76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J76" s="3">
         <v>-1200</v>
       </c>
       <c r="K76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3967,23 +4162,23 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
@@ -3991,22 +4186,25 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,13 +4223,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4061,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4072,11 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4568,26 +4798,26 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
-        <v>-100</v>
-      </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>10</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,19 +5058,22 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4836,37 +5082,40 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,16 +5164,19 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -4957,12 +5209,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,13 +758,13 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
@@ -766,37 +773,43 @@
         <v>300</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>200</v>
+      </c>
+      <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>200</v>
-      </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,25 +829,25 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -846,10 +859,16 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,25 +876,25 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -893,16 +912,22 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,40 +961,40 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,72 +1061,84 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>200</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>200</v>
       </c>
       <c r="R14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>200</v>
+      </c>
+      <c r="U14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1120,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1132,10 +1177,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,22 +1203,24 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
@@ -1176,51 +1229,57 @@
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1229,7 +1288,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1244,22 +1303,28 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,25 +1361,25 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1330,33 +1397,39 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1371,22 +1444,28 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,11 +1493,11 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1438,8 +1517,14 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1477,22 +1562,28 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1694,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,22 +1709,22 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1636,22 +1739,28 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1689,22 +1798,28 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,40 +1871,46 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1797,20 +1918,26 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1930,25 +2069,25 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1966,10 +2105,16 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,22 +2122,22 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -2001,28 +2146,34 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2225,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,22 +2240,22 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -2107,86 +2264,98 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2398,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2239,10 +2412,10 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2269,19 +2442,25 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2512,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,34 +2527,34 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2381,13 +2566,19 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2398,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2439,37 +2630,43 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2492,8 +2689,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,25 +2704,25 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2528,13 +2731,13 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
@@ -2543,21 +2746,27 @@
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
@@ -2571,11 +2780,11 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2598,19 +2807,25 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>10</v>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>10</v>
@@ -2624,11 +2839,11 @@
       <c r="J48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2651,34 +2866,40 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -2687,25 +2908,31 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
       </c>
       <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+      <c r="S49" s="3">
         <v>300</v>
       </c>
-      <c r="R49" s="3">
-        <v>200</v>
-      </c>
-      <c r="S49" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +3043,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2858,13 +3097,19 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
-      </c>
       <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
-        <v>200</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
       </c>
       <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3270,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,19 +3281,19 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -3053,10 +3314,10 @@
         <v>500</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -3064,13 +3325,19 @@
       <c r="S57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>400</v>
+      </c>
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3100,25 +3367,31 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,34 +3399,34 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
@@ -3162,16 +3435,22 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3182,49 +3461,55 @@
         <v>1100</v>
       </c>
       <c r="F60" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="G60" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="H60" s="3">
         <v>1400</v>
       </c>
       <c r="I60" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="J60" s="3">
         <v>1400</v>
       </c>
       <c r="K60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
+        <v>900</v>
+      </c>
+      <c r="S60" s="3">
+        <v>800</v>
+      </c>
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,10 +3517,10 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3262,22 +3547,28 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3300,13 +3591,13 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3324,13 +3615,19 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3797,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,52 +3812,58 @@
         <v>1100</v>
       </c>
       <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
-        <v>1500</v>
-      </c>
       <c r="G66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>1500</v>
       </c>
       <c r="I66" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J66" s="3">
         <v>1500</v>
       </c>
       <c r="K66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-16200</v>
       </c>
       <c r="H72" s="3">
         <v>-16300</v>
       </c>
       <c r="I72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-16300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-16200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-15500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-15000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4469,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,22 +4548,22 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -4183,28 +4572,34 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,19 +4619,21 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4263,22 +4660,28 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,28 +4969,34 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -4572,16 +5005,16 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4593,10 +5026,16 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5228,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4801,35 +5260,41 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="R94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5546,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>200</v>
-      </c>
       <c r="R100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T100" s="3">
+        <v>200</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5664,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5212,12 +5715,18 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>200</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,28 +768,28 @@
         <v>400</v>
       </c>
       <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>200</v>
-      </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
@@ -794,22 +798,25 @@
         <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>200</v>
-      </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,17 +842,17 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>-100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
@@ -853,22 +860,25 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -882,22 +892,22 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
       <c r="J10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -918,7 +928,7 @@
         <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
@@ -926,8 +936,11 @@
       <c r="U10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -967,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -985,10 +999,10 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -997,7 +1011,7 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,17 +1113,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1111,14 +1131,14 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>200</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>200</v>
@@ -1126,22 +1146,25 @@
       <c r="U14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1171,22 +1194,25 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,25 +1231,26 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
-        <v>200</v>
-      </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
@@ -1235,13 +1262,13 @@
         <v>400</v>
       </c>
       <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1250,33 +1277,36 @@
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1285,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1309,22 +1339,25 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1367,11 +1401,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1379,11 +1413,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1403,21 +1437,24 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>100</v>
@@ -1426,13 +1463,13 @@
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1450,22 +1487,25 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-400</v>
       </c>
       <c r="U21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1499,8 +1539,8 @@
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1523,19 +1563,22 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1544,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1568,22 +1611,25 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-400</v>
       </c>
       <c r="U23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,19 +1749,22 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1721,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1745,33 +1797,36 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-400</v>
       </c>
       <c r="U26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1780,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1804,22 +1859,25 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-400</v>
       </c>
       <c r="U27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1888,21 +1949,21 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -1910,11 +1971,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1924,20 +1985,23 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2075,11 +2145,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2087,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2111,21 +2181,24 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2134,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2158,22 +2231,25 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-400</v>
       </c>
       <c r="U33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,19 +2307,22 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2252,22 +2331,22 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2276,86 +2355,92 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-400</v>
       </c>
       <c r="U35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2418,7 +2505,7 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2448,19 +2535,22 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2533,10 +2626,10 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -2545,7 +2638,7 @@
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2554,10 +2647,10 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2572,13 +2665,16 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2595,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,19 +2744,19 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2666,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2704,22 +2806,22 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>200</v>
-      </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2728,19 +2830,19 @@
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
@@ -2752,10 +2854,13 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2768,8 +2873,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -2786,8 +2891,8 @@
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2827,8 +2935,8 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>10</v>
@@ -2845,8 +2953,8 @@
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2883,18 +2994,18 @@
       <c r="E49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="3">
-        <v>500</v>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
       </c>
       <c r="H49" s="3">
+        <v>500</v>
+      </c>
+      <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
@@ -2902,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2914,7 +3025,7 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -2923,16 +3034,19 @@
         <v>200</v>
       </c>
       <c r="S49" s="3">
+        <v>200</v>
+      </c>
+      <c r="T49" s="3">
         <v>300</v>
       </c>
-      <c r="T49" s="3">
-        <v>200</v>
-      </c>
       <c r="U49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3063,8 +3183,8 @@
       <c r="F52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3103,13 +3223,16 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,52 +3290,55 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>800</v>
       </c>
       <c r="G54" s="3">
         <v>800</v>
       </c>
       <c r="H54" s="3">
+        <v>800</v>
+      </c>
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>200</v>
-      </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
-        <v>200</v>
-      </c>
       <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3">
         <v>400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
@@ -3221,13 +3347,16 @@
         <v>400</v>
       </c>
       <c r="T54" s="3">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3281,22 +3412,22 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
@@ -3320,7 +3451,7 @@
         <v>500</v>
       </c>
       <c r="R57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3373,13 +3507,13 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -3388,10 +3522,13 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3405,16 +3542,16 @@
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>1000</v>
       </c>
       <c r="J59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
@@ -3423,13 +3560,13 @@
         <v>800</v>
       </c>
       <c r="M59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
@@ -3441,75 +3578,81 @@
         <v>400</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>1000</v>
       </c>
       <c r="Q60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3523,7 +3666,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3553,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3565,10 +3708,13 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3585,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3597,10 +3743,10 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -3621,13 +3767,16 @@
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,25 +3958,28 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1100</v>
       </c>
       <c r="G66" s="3">
         <v>1100</v>
       </c>
       <c r="H66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1500</v>
@@ -3830,40 +3988,43 @@
         <v>1500</v>
       </c>
       <c r="K66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1400</v>
       </c>
       <c r="N66" s="3">
         <v>1400</v>
       </c>
       <c r="O66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1000</v>
       </c>
       <c r="R66" s="3">
         <v>1000</v>
       </c>
       <c r="S66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T66" s="3">
         <v>800</v>
-      </c>
-      <c r="T66" s="3">
-        <v>700</v>
       </c>
       <c r="U66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-16300</v>
       </c>
       <c r="H72" s="3">
         <v>-16300</v>
       </c>
       <c r="I72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-16300</v>
       </c>
       <c r="K72" s="3">
         <v>-16300</v>
       </c>
       <c r="L72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-16200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
         <v>-800</v>
       </c>
       <c r="F76" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="G76" s="3">
         <v>-400</v>
       </c>
       <c r="H76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1300</v>
       </c>
       <c r="K76" s="3">
         <v>-1300</v>
       </c>
       <c r="L76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="M76" s="3">
         <v>-1200</v>
       </c>
       <c r="N76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,83 +4664,89 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -4560,22 +4755,22 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4584,22 +4779,25 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-400</v>
       </c>
       <c r="U81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4630,13 +4829,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>-100</v>
       </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4666,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4677,11 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
       <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,16 +5461,19 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5266,26 +5496,26 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>10</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5564,16 +5810,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5582,37 +5828,40 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5685,10 +5937,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -5721,12 +5973,15 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>200</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,28 +775,28 @@
         <v>400</v>
       </c>
       <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>200</v>
-      </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
@@ -801,22 +805,25 @@
         <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
-        <v>200</v>
-      </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,17 +852,17 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>-100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
@@ -863,22 +870,25 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,22 +905,22 @@
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
       <c r="K10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -931,7 +941,7 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -1002,10 +1016,10 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1014,7 +1028,7 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,46 +1104,49 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1134,14 +1154,14 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>200</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>200</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,14 +1183,14 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1197,22 +1220,25 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,28 +1258,29 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1265,13 +1292,13 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1280,36 +1307,39 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1318,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1342,22 +1372,25 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1404,11 +1438,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1416,11 +1450,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1440,10 +1474,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,13 +1488,13 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
@@ -1466,13 +1503,13 @@
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1490,22 +1527,25 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-400</v>
       </c>
       <c r="V21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,8 +1582,8 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,13 +1618,13 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1590,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1614,22 +1657,25 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-400</v>
       </c>
       <c r="V23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,13 +1813,13 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1776,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1800,22 +1852,25 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-400</v>
       </c>
       <c r="V26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,13 +1878,13 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1838,13 +1893,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1862,22 +1917,25 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-400</v>
       </c>
       <c r="V27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1952,21 +2013,21 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1974,11 +2035,11 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -1988,20 +2049,23 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2148,11 +2218,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2160,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2184,10 +2254,13 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,13 +2268,13 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -2210,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2234,22 +2307,25 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-400</v>
       </c>
       <c r="V33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2334,22 +2413,22 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2358,89 +2437,95 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-400</v>
       </c>
       <c r="V35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,13 +2573,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2508,7 +2595,7 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2538,19 +2625,22 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2629,10 +2722,10 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -2641,7 +2734,7 @@
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2650,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2668,13 +2761,16 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2694,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,19 +2846,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2768,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2797,34 +2896,37 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2833,19 +2935,19 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -2857,10 +2959,13 @@
         <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2876,8 +2981,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
@@ -2894,8 +2999,8 @@
       <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2938,8 +3046,8 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>10</v>
@@ -2956,8 +3064,8 @@
       <c r="M48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2997,18 +3108,18 @@
       <c r="F49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="3">
-        <v>500</v>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
       </c>
       <c r="I49" s="3">
+        <v>500</v>
+      </c>
+      <c r="J49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
@@ -3016,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -3028,7 +3139,7 @@
         <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -3037,16 +3148,19 @@
         <v>200</v>
       </c>
       <c r="T49" s="3">
+        <v>200</v>
+      </c>
+      <c r="U49" s="3">
         <v>300</v>
       </c>
-      <c r="U49" s="3">
-        <v>200</v>
-      </c>
       <c r="V49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3186,8 +3306,8 @@
       <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3226,13 +3346,16 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,55 +3416,58 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>800</v>
       </c>
       <c r="H54" s="3">
         <v>800</v>
       </c>
       <c r="I54" s="3">
+        <v>800</v>
+      </c>
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
-        <v>200</v>
-      </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
       <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
-        <v>200</v>
-      </c>
       <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
         <v>400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
       </c>
       <c r="R54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
@@ -3350,13 +3476,16 @@
         <v>400</v>
       </c>
       <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,22 +3546,22 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
@@ -3454,7 +3585,7 @@
         <v>500</v>
       </c>
       <c r="S57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3510,13 +3644,13 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
@@ -3525,15 +3659,18 @@
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
@@ -3545,16 +3682,16 @@
         <v>700</v>
       </c>
       <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1000</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
       </c>
       <c r="K59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
@@ -3563,13 +3700,13 @@
         <v>800</v>
       </c>
       <c r="N59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
       </c>
       <c r="P59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
@@ -3581,78 +3718,84 @@
         <v>400</v>
       </c>
       <c r="T59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1000</v>
       </c>
       <c r="Q60" s="3">
         <v>1000</v>
       </c>
       <c r="R60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3669,7 +3812,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3699,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -3711,10 +3854,13 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3734,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3746,10 +3892,10 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -3770,13 +3916,16 @@
         <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,28 +4116,31 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>1100</v>
       </c>
       <c r="I66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="J66" s="3">
         <v>1500</v>
@@ -3991,40 +4149,43 @@
         <v>1500</v>
       </c>
       <c r="L66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1400</v>
       </c>
       <c r="O66" s="3">
         <v>1400</v>
       </c>
       <c r="P66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1000</v>
       </c>
       <c r="S66" s="3">
         <v>1000</v>
       </c>
       <c r="T66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U66" s="3">
         <v>800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>700</v>
       </c>
       <c r="V66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,61 +4478,64 @@
         <v>-15900</v>
       </c>
       <c r="E72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-16300</v>
       </c>
       <c r="I72" s="3">
         <v>-16300</v>
       </c>
       <c r="J72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-16300</v>
       </c>
       <c r="L72" s="3">
         <v>-16300</v>
       </c>
       <c r="M72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-16200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-800</v>
       </c>
       <c r="F76" s="3">
         <v>-800</v>
       </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1300</v>
       </c>
       <c r="L76" s="3">
         <v>-1300</v>
       </c>
       <c r="M76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="N76" s="3">
         <v>-1200</v>
       </c>
       <c r="O76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,13 +4938,13 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4758,22 +4953,22 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4782,22 +4977,25 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-400</v>
       </c>
       <c r="V81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,13 +5031,13 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>-100</v>
       </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4868,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4879,11 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>200</v>
-      </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5475,8 +5705,8 @@
       <c r="E94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5499,26 +5729,26 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>10</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5813,16 +6059,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5831,37 +6077,40 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,13 +6171,16 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5940,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -5976,12 +6228,15 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>200</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,112 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
@@ -778,13 +785,13 @@
         <v>400</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
@@ -793,37 +800,43 @@
         <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
+        <v>200</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>200</v>
-      </c>
-      <c r="U8" s="3">
-        <v>200</v>
-      </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,25 +868,25 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>-100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -885,15 +898,21 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
@@ -908,25 +927,25 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
@@ -944,16 +963,22 @@
         <v>200</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1001,40 +1028,40 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,19 +1140,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1133,47 +1172,53 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>200</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
         <v>200</v>
       </c>
       <c r="V14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,17 +1231,17 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1223,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1235,10 +1280,16 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,34 +1310,36 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
@@ -1295,63 +1348,69 @@
         <v>400</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1360,7 +1419,7 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1375,22 +1434,28 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1441,26 +1508,26 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1477,10 +1544,16 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,34 +1561,34 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
@@ -1530,27 +1603,33 @@
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
@@ -1585,11 +1664,11 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1609,8 +1688,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,34 +1703,34 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1660,22 +1745,28 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1901,14 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,34 +1916,34 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1855,57 +1958,63 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1920,22 +2029,28 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,13 +2114,19 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2016,56 +2137,62 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2221,25 +2360,25 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2257,45 +2396,51 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
@@ -2304,28 +2449,34 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,43 +2540,49 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
@@ -2434,98 +2591,110 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,20 +2745,22 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
@@ -2598,10 +2771,10 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2628,19 +2801,25 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,16 +2883,22 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -2725,34 +2910,34 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -2764,13 +2949,19 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2793,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2834,49 +3025,55 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2899,46 +3096,52 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -2947,13 +3150,13 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
@@ -2962,15 +3165,21 @@
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2984,11 +3193,11 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
@@ -3002,11 +3211,11 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3029,8 +3238,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3049,11 +3264,11 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>10</v>
@@ -3067,11 +3282,11 @@
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3094,8 +3309,14 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3111,29 +3332,29 @@
       <c r="G49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
@@ -3142,25 +3363,31 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
       </c>
       <c r="U49" s="3">
+        <v>200</v>
+      </c>
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+      <c r="W49" s="3">
         <v>300</v>
       </c>
-      <c r="V49" s="3">
-        <v>200</v>
-      </c>
-      <c r="W49" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,25 +3522,31 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3349,13 +3588,19 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
         <v>700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
-        <v>200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
-      </c>
       <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
-        <v>200</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>400</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
       </c>
       <c r="V54" s="3">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3">
+        <v>400</v>
+      </c>
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3793,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3549,25 +3810,25 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
@@ -3588,10 +3849,10 @@
         <v>500</v>
       </c>
       <c r="T57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
@@ -3599,13 +3860,19 @@
       <c r="W57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3614,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3647,36 +3914,42 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
-        <v>700</v>
-      </c>
       <c r="F59" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
@@ -3685,34 +3958,34 @@
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>800</v>
+      </c>
+      <c r="P59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -3721,30 +3994,36 @@
         <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1100</v>
       </c>
       <c r="H60" s="3">
         <v>1000</v>
@@ -3753,57 +4032,63 @@
         <v>1100</v>
       </c>
       <c r="J60" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K60" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="L60" s="3">
         <v>1400</v>
       </c>
       <c r="M60" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="N60" s="3">
         <v>1400</v>
       </c>
       <c r="O60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>900</v>
       </c>
       <c r="U60" s="3">
         <v>800</v>
       </c>
       <c r="V60" s="3">
+        <v>900</v>
+      </c>
+      <c r="W60" s="3">
+        <v>800</v>
+      </c>
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3815,10 +4100,10 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3845,30 +4130,36 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3883,10 +4174,10 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3895,13 +4186,13 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -3919,13 +4210,19 @@
         <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1100</v>
       </c>
       <c r="I66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
-        <v>1500</v>
-      </c>
       <c r="K66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="L66" s="3">
         <v>1500</v>
       </c>
       <c r="M66" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="N66" s="3">
         <v>1500</v>
       </c>
       <c r="O66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-16000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-16100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-16200</v>
       </c>
       <c r="L72" s="3">
         <v>-16300</v>
       </c>
       <c r="M72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-16300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-16200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-16000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-15600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-15500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-15400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-15300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-15000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-500</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-200</v>
       </c>
       <c r="W76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,113 +5236,125 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
@@ -4974,28 +5363,34 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,16 +5431,16 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>-100</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5070,22 +5467,28 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,40 +5836,46 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5451,16 +5884,16 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5472,10 +5905,16 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,20 +5951,20 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5564,8 +6005,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,25 +6147,31 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5732,35 +6191,41 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T94" s="3" t="s">
+      <c r="V94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6529,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6062,55 +6553,61 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>200</v>
-      </c>
       <c r="V100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,19 +6671,25 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -6195,13 +6698,13 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6231,12 +6734,18 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,7 +777,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
@@ -791,28 +795,28 @@
         <v>400</v>
       </c>
       <c r="K8" s="3">
+        <v>400</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>200</v>
-      </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
@@ -821,22 +825,25 @@
         <v>200</v>
       </c>
       <c r="U8" s="3">
+        <v>200</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
-        <v>200</v>
-      </c>
       <c r="W8" s="3">
         <v>200</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -874,17 +881,17 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>-100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
@@ -892,22 +899,25 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -915,7 +925,7 @@
         <v>400</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -933,22 +943,22 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
       <c r="N10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
@@ -969,7 +979,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1034,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1052,10 +1066,10 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1064,7 +1078,7 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,22 +1163,25 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1178,23 +1198,23 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1202,14 +1222,14 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>200</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>200</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,14 +1260,14 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1274,22 +1297,25 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,37 +1338,38 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
-        <v>200</v>
-      </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1354,13 +1381,13 @@
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1369,45 +1396,48 @@
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1416,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1440,22 +1470,25 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,13 +1514,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1514,11 +1548,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1526,11 +1560,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1550,33 +1584,36 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
         <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>100</v>
@@ -1585,13 +1622,13 @@
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
@@ -1609,30 +1646,33 @@
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-400</v>
       </c>
       <c r="Y21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
@@ -1670,8 +1710,8 @@
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,22 +1746,22 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1727,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1751,22 +1794,25 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-400</v>
       </c>
       <c r="Y23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,31 +1956,34 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>100</v>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1940,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1964,45 +2016,48 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-400</v>
       </c>
       <c r="Y26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -2011,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -2035,22 +2090,25 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-400</v>
       </c>
       <c r="Y27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,16 +2178,19 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2143,21 +2204,21 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2165,11 +2226,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2179,11 +2240,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,13 +2400,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2366,11 +2436,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2378,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2402,33 +2472,36 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2437,22 +2510,22 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2461,22 +2534,25 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-400</v>
       </c>
       <c r="Y33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,31 +2622,34 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2579,22 +2658,22 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2603,98 +2682,104 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-400</v>
       </c>
       <c r="Y35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2759,11 +2846,11 @@
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
@@ -2777,7 +2864,7 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2807,19 +2894,22 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2901,7 +2994,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -2916,10 +3009,10 @@
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
@@ -2928,7 +3021,7 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2937,10 +3030,10 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -2955,13 +3048,16 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2990,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3043,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3052,19 +3151,19 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3073,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3111,34 +3213,34 @@
         <v>700</v>
       </c>
       <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>200</v>
-      </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
@@ -3147,19 +3249,19 @@
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
@@ -3171,10 +3273,13 @@
         <v>200</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3182,7 +3287,7 @@
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3199,8 +3304,8 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
@@ -3217,8 +3322,8 @@
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3244,13 +3349,16 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3270,8 +3378,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>10</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>10</v>
@@ -3288,8 +3396,8 @@
       <c r="P48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3338,18 +3449,18 @@
       <c r="I49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="3">
-        <v>500</v>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
       </c>
       <c r="L49" s="3">
+        <v>500</v>
+      </c>
+      <c r="M49" s="3">
         <v>600</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
@@ -3357,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -3369,7 +3480,7 @@
         <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
@@ -3378,16 +3489,19 @@
         <v>200</v>
       </c>
       <c r="W49" s="3">
+        <v>200</v>
+      </c>
+      <c r="X49" s="3">
         <v>300</v>
       </c>
-      <c r="X49" s="3">
-        <v>200</v>
-      </c>
       <c r="Y49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3594,13 +3714,16 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3682,52 +3808,52 @@
         <v>800</v>
       </c>
       <c r="F54" s="3">
+        <v>800</v>
+      </c>
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>800</v>
       </c>
       <c r="K54" s="3">
         <v>800</v>
       </c>
       <c r="L54" s="3">
+        <v>800</v>
+      </c>
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
-        <v>200</v>
-      </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
-        <v>200</v>
-      </c>
       <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
       </c>
       <c r="U54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>400</v>
@@ -3736,13 +3862,16 @@
         <v>400</v>
       </c>
       <c r="X54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3816,22 +3947,22 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
@@ -3855,7 +3986,7 @@
         <v>500</v>
       </c>
       <c r="V57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>400</v>
@@ -3866,16 +3997,19 @@
       <c r="Y57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3887,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3920,13 +4054,13 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
@@ -3935,10 +4069,13 @@
         <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3946,13 +4083,13 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>1000</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
@@ -3964,16 +4101,16 @@
         <v>700</v>
       </c>
       <c r="K59" s="3">
+        <v>700</v>
+      </c>
+      <c r="L59" s="3">
         <v>800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
       </c>
       <c r="N59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
@@ -3982,13 +4119,13 @@
         <v>800</v>
       </c>
       <c r="Q59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>600</v>
       </c>
       <c r="S59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
@@ -4000,87 +4137,93 @@
         <v>400</v>
       </c>
       <c r="W59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1000</v>
       </c>
       <c r="T60" s="3">
         <v>1000</v>
       </c>
       <c r="U60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -4106,7 +4249,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4136,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4148,10 +4291,13 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4159,10 +4305,10 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4180,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4192,10 +4338,10 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -4216,13 +4362,16 @@
         <v>100</v>
       </c>
       <c r="X62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4589,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,28 +4601,28 @@
         <v>1100</v>
       </c>
       <c r="E66" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
       </c>
       <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1100</v>
       </c>
       <c r="K66" s="3">
         <v>1100</v>
       </c>
       <c r="L66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="M66" s="3">
         <v>1500</v>
@@ -4473,40 +4631,43 @@
         <v>1500</v>
       </c>
       <c r="O66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1400</v>
       </c>
       <c r="R66" s="3">
         <v>1400</v>
       </c>
       <c r="S66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1000</v>
       </c>
       <c r="V66" s="3">
         <v>1000</v>
       </c>
       <c r="W66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X66" s="3">
         <v>800</v>
-      </c>
-      <c r="X66" s="3">
-        <v>700</v>
       </c>
       <c r="Y66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-15900</v>
       </c>
       <c r="G72" s="3">
         <v>-15900</v>
       </c>
       <c r="H72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-16000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-16300</v>
       </c>
       <c r="L72" s="3">
         <v>-16300</v>
       </c>
       <c r="M72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-16300</v>
       </c>
       <c r="O72" s="3">
         <v>-16300</v>
       </c>
       <c r="P72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-800</v>
       </c>
       <c r="J76" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1300</v>
       </c>
       <c r="O76" s="3">
         <v>-1300</v>
       </c>
       <c r="P76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="Q76" s="3">
         <v>-1200</v>
       </c>
       <c r="R76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,107 +5431,113 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -5351,22 +5546,22 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -5375,22 +5570,25 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-400</v>
       </c>
       <c r="Y81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5437,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>-100</v>
       </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5473,10 +5672,10 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5484,11 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5851,70 +6068,73 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
       <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,19 +6160,20 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
@@ -5960,14 +6181,14 @@
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6164,8 +6394,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>10</v>
@@ -6173,8 +6403,8 @@
       <c r="H94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -6197,26 +6427,26 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>10</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,13 +6778,16 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6559,16 +6805,16 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6577,37 +6823,40 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>200</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6686,13 +6938,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -6704,10 +6956,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6740,12 +6992,15 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,7 +784,7 @@
         <v>500</v>
       </c>
       <c r="F8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
@@ -798,28 +802,28 @@
         <v>400</v>
       </c>
       <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>200</v>
-      </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
@@ -828,22 +832,25 @@
         <v>200</v>
       </c>
       <c r="V8" s="3">
+        <v>200</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
-        <v>200</v>
-      </c>
       <c r="X8" s="3">
         <v>200</v>
       </c>
       <c r="Y8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,17 +891,17 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>-100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
@@ -902,22 +909,25 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -928,7 +938,7 @@
         <v>400</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -946,22 +956,22 @@
         <v>300</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
       <c r="O10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -982,7 +992,7 @@
         <v>200</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1051,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1069,10 +1083,10 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1081,7 +1095,7 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,25 +1183,28 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1201,23 +1221,23 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1225,14 +1245,14 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>200</v>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>200</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,14 +1286,14 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1300,22 +1323,25 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,40 +1365,41 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
@@ -1384,13 +1411,13 @@
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
-        <v>200</v>
-      </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
@@ -1399,48 +1426,51 @@
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1449,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1473,22 +1503,25 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1551,11 +1585,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1563,11 +1597,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1587,36 +1621,39 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
@@ -1625,13 +1662,13 @@
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1649,22 +1686,25 @@
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-400</v>
       </c>
       <c r="Z21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1674,8 +1714,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>10</v>
@@ -1713,8 +1753,8 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1737,34 +1777,37 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1773,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1797,22 +1840,25 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-400</v>
       </c>
       <c r="Z23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,34 +2008,37 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1995,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -2019,48 +2071,51 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-400</v>
       </c>
       <c r="Z26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -2069,13 +2124,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -2093,22 +2148,25 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-400</v>
       </c>
       <c r="Z27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,8 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2207,21 +2268,21 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2229,11 +2290,11 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2243,20 +2304,23 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2439,11 +2509,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2451,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2475,36 +2545,39 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2513,22 +2586,22 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2537,22 +2610,25 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-400</v>
       </c>
       <c r="Z33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,34 +2701,37 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2661,22 +2740,22 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2685,101 +2764,107 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-400</v>
       </c>
       <c r="Z35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,13 +2920,14 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
@@ -2849,11 +2936,11 @@
         <v>400</v>
       </c>
       <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
@@ -2867,7 +2954,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2897,19 +2984,22 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,13 +3072,16 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2997,7 +3090,7 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -3012,10 +3105,10 @@
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
@@ -3024,7 +3117,7 @@
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3033,10 +3126,10 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -3051,13 +3144,16 @@
         <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3089,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3145,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3154,19 +3253,19 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3175,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3216,34 +3318,34 @@
         <v>700</v>
       </c>
       <c r="F46" s="3">
+        <v>700</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -3252,19 +3354,19 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
@@ -3276,10 +3378,13 @@
         <v>200</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3290,7 +3395,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3307,8 +3412,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>10</v>
@@ -3325,8 +3430,8 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3352,13 +3457,16 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>10</v>
+      <c r="D48" s="3">
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3381,8 +3489,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>10</v>
@@ -3399,8 +3507,8 @@
       <c r="Q48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3426,44 +3534,47 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="3">
-        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
       </c>
       <c r="M49" s="3">
+        <v>500</v>
+      </c>
+      <c r="N49" s="3">
         <v>600</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
@@ -3471,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -3483,7 +3594,7 @@
         <v>100</v>
       </c>
       <c r="U49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
@@ -3492,16 +3603,19 @@
         <v>200</v>
       </c>
       <c r="X49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y49" s="3">
         <v>300</v>
       </c>
-      <c r="Y49" s="3">
-        <v>200</v>
-      </c>
       <c r="Z49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3717,13 +3837,16 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3811,52 +3937,52 @@
         <v>800</v>
       </c>
       <c r="G54" s="3">
+        <v>800</v>
+      </c>
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>800</v>
       </c>
       <c r="L54" s="3">
         <v>800</v>
       </c>
       <c r="M54" s="3">
+        <v>800</v>
+      </c>
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
-        <v>200</v>
-      </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
-        <v>200</v>
-      </c>
       <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>300</v>
       </c>
       <c r="U54" s="3">
         <v>300</v>
       </c>
       <c r="V54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>400</v>
@@ -3865,13 +3991,16 @@
         <v>400</v>
       </c>
       <c r="Y54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,13 +4056,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3950,22 +4081,22 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
-        <v>200</v>
-      </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
@@ -3989,7 +4120,7 @@
         <v>500</v>
       </c>
       <c r="W57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4011,8 +4145,8 @@
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4024,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -4057,13 +4191,13 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
@@ -4072,27 +4206,30 @@
         <v>100</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>1000</v>
       </c>
       <c r="H59" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
@@ -4104,16 +4241,16 @@
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
         <v>800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1000</v>
       </c>
       <c r="N59" s="3">
         <v>1000</v>
       </c>
       <c r="O59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P59" s="3">
         <v>800</v>
@@ -4122,13 +4259,13 @@
         <v>800</v>
       </c>
       <c r="R59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="S59" s="3">
         <v>600</v>
       </c>
       <c r="T59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
@@ -4140,90 +4277,96 @@
         <v>400</v>
       </c>
       <c r="X59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1000</v>
       </c>
       <c r="U60" s="3">
         <v>1000</v>
       </c>
       <c r="V60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4237,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -4252,7 +4395,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4282,10 +4425,10 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -4294,10 +4437,13 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4308,10 +4454,10 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4329,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4341,10 +4487,10 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
@@ -4365,13 +4511,16 @@
         <v>100</v>
       </c>
       <c r="Y62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,40 +4747,43 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
         <v>1100</v>
       </c>
       <c r="F66" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G66" s="3">
         <v>1300</v>
       </c>
       <c r="H66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1100</v>
       </c>
       <c r="L66" s="3">
         <v>1100</v>
       </c>
       <c r="M66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="N66" s="3">
         <v>1500</v>
@@ -4634,40 +4792,43 @@
         <v>1500</v>
       </c>
       <c r="P66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1400</v>
       </c>
       <c r="S66" s="3">
         <v>1400</v>
       </c>
       <c r="T66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1000</v>
       </c>
       <c r="W66" s="3">
         <v>1000</v>
       </c>
       <c r="X66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y66" s="3">
         <v>800</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>700</v>
       </c>
       <c r="Z66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-15900</v>
       </c>
       <c r="H72" s="3">
         <v>-15900</v>
       </c>
       <c r="I72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-16000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-16300</v>
       </c>
       <c r="M72" s="3">
         <v>-16300</v>
       </c>
       <c r="N72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-16300</v>
       </c>
       <c r="P72" s="3">
         <v>-16300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-16200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-800</v>
       </c>
       <c r="J76" s="3">
         <v>-800</v>
       </c>
       <c r="K76" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1300</v>
       </c>
       <c r="P76" s="3">
         <v>-1300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="R76" s="3">
         <v>-1200</v>
       </c>
       <c r="S76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,113 +5623,119 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -5549,22 +5744,22 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -5573,22 +5768,25 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-400</v>
       </c>
       <c r="Z81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5639,13 +5838,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>-100</v>
       </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5675,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5686,11 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,13 +6381,14 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6175,8 +6396,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -6184,14 +6405,14 @@
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6397,8 +6627,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
@@ -6406,8 +6636,8 @@
       <c r="I94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6430,26 +6660,26 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>10</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,13 +7024,16 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>10</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6808,16 +7054,16 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6826,37 +7072,40 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>200</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,25 +7178,28 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -6959,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -6995,12 +7247,15 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,10 +794,10 @@
         <v>500</v>
       </c>
       <c r="G8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
@@ -805,13 +812,13 @@
         <v>400</v>
       </c>
       <c r="M8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
       </c>
       <c r="O8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
@@ -820,37 +827,43 @@
         <v>300</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
       <c r="U8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
       </c>
       <c r="W8" s="3">
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>200</v>
-      </c>
       <c r="Z8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -894,25 +907,25 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>-100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -924,10 +937,16 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -941,10 +960,10 @@
         <v>400</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
@@ -959,25 +978,25 @@
         <v>300</v>
       </c>
       <c r="M10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
-        <v>200</v>
-      </c>
       <c r="S10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>200</v>
@@ -995,16 +1014,22 @@
         <v>200</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1068,40 +1095,40 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,31 +1219,37 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1224,47 +1263,53 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>200</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
         <v>200</v>
       </c>
       <c r="Z14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,17 +1334,17 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1326,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1338,10 +1383,16 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,46 +1417,48 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
-      </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1414,75 +1467,81 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
       <c r="W17" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
       </c>
       <c r="Y17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3">
         <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1491,7 +1550,7 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1506,22 +1565,28 @@
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1588,26 +1655,26 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1624,57 +1691,63 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
@@ -1689,22 +1762,28 @@
         <v>-100</v>
       </c>
       <c r="W21" s="3">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1717,11 +1796,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>10</v>
@@ -1756,11 +1835,11 @@
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1780,55 +1859,61 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1843,22 +1928,28 @@
         <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,55 +2108,61 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -2074,69 +2177,75 @@
         <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -2151,22 +2260,28 @@
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,11 +2377,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2271,56 +2392,62 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2512,25 +2651,25 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2548,57 +2687,63 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
@@ -2607,28 +2752,34 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,55 +2855,61 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
@@ -2761,110 +2918,122 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,32 +3092,34 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>400</v>
       </c>
       <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>400</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
@@ -2957,10 +3130,10 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2987,19 +3160,25 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,28 +3254,34 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
-        <v>300</v>
-      </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -3108,34 +3293,34 @@
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
@@ -3147,13 +3332,19 @@
         <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3188,13 +3379,13 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3247,43 +3444,43 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3306,58 +3503,64 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F46" s="3">
         <v>700</v>
       </c>
       <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>700</v>
+      </c>
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -3366,13 +3569,13 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
@@ -3381,10 +3584,16 @@
         <v>200</v>
       </c>
       <c r="AA46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3398,10 +3607,10 @@
         <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -3415,11 +3624,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>10</v>
@@ -3433,11 +3642,11 @@
       <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3460,8 +3669,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3492,11 +3707,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>10</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>10</v>
@@ -3510,11 +3725,11 @@
       <c r="R48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3537,8 +3752,14 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3563,32 +3784,32 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>600</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T49" s="3">
         <v>100</v>
@@ -3597,25 +3818,31 @@
         <v>100</v>
       </c>
       <c r="V49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X49" s="3">
         <v>200</v>
       </c>
       <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA49" s="3">
         <v>300</v>
       </c>
-      <c r="Z49" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3840,13 +4079,19 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,16 +4167,22 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E54" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F54" s="3">
         <v>800</v>
@@ -3940,67 +4191,73 @@
         <v>800</v>
       </c>
       <c r="H54" s="3">
+        <v>800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>800</v>
+      </c>
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
-      </c>
       <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
-        <v>200</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
+        <v>200</v>
+      </c>
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
-      </c>
-      <c r="W54" s="3">
-        <v>400</v>
-      </c>
-      <c r="X54" s="3">
-        <v>400</v>
       </c>
       <c r="Y54" s="3">
         <v>400</v>
       </c>
       <c r="Z54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4316,10 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,10 +4327,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -4084,25 +4345,25 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
-        <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
-      </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
@@ -4123,10 +4384,10 @@
         <v>500</v>
       </c>
       <c r="X57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z57" s="3">
         <v>400</v>
@@ -4134,19 +4395,25 @@
       <c r="AA57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4161,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -4194,48 +4461,54 @@
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>100</v>
       </c>
       <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
@@ -4244,34 +4517,34 @@
         <v>700</v>
       </c>
       <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>800</v>
       </c>
       <c r="S59" s="3">
+        <v>800</v>
+      </c>
+      <c r="T59" s="3">
+        <v>800</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>400</v>
-      </c>
-      <c r="V59" s="3">
-        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
@@ -4280,42 +4553,48 @@
         <v>400</v>
       </c>
       <c r="Y59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1100</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
@@ -4324,49 +4603,55 @@
         <v>1100</v>
       </c>
       <c r="N60" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="O60" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="P60" s="3">
         <v>1400</v>
       </c>
       <c r="Q60" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="R60" s="3">
         <v>1400</v>
       </c>
       <c r="S60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
-      </c>
-      <c r="W60" s="3">
-        <v>800</v>
-      </c>
-      <c r="X60" s="3">
-        <v>900</v>
       </c>
       <c r="Y60" s="3">
         <v>800</v>
       </c>
       <c r="Z60" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4383,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -4398,10 +4683,10 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4428,22 +4713,28 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
       <c r="AA61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4457,13 +4748,13 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4478,10 +4769,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4490,13 +4781,13 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
@@ -4514,13 +4805,19 @@
         <v>100</v>
       </c>
       <c r="Z62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1200</v>
       </c>
       <c r="L66" s="3">
         <v>1100</v>
       </c>
       <c r="M66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
-        <v>1500</v>
-      </c>
       <c r="O66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="P66" s="3">
         <v>1500</v>
       </c>
       <c r="Q66" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="R66" s="3">
         <v>1500</v>
       </c>
       <c r="S66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-15900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-16000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-16200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-16200</v>
       </c>
       <c r="P72" s="3">
         <v>-16300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-16300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="T72" s="3">
         <v>-16200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-16000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-15900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-15700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-15600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-15500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-15300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-200</v>
       </c>
       <c r="AA76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,137 +6003,149 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
@@ -5765,28 +6154,34 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5841,16 +6238,16 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>-100</v>
       </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5877,22 +6274,28 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6703,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,43 +6718,43 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -6330,16 +6763,16 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6351,10 +6784,16 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,13 +6821,15 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6399,17 +6840,17 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
@@ -6417,8 +6858,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6630,20 +7089,20 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6663,35 +7122,41 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3" t="s">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X94" s="3" t="s">
+      <c r="Z94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7512,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7057,55 +7548,61 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>200</v>
-      </c>
       <c r="Z100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7678,14 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,22 +7693,22 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7214,13 +7717,13 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -7250,12 +7753,18 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -800,7 +804,7 @@
         <v>500</v>
       </c>
       <c r="I8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
@@ -818,28 +822,28 @@
         <v>400</v>
       </c>
       <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>200</v>
-      </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
@@ -848,22 +852,25 @@
         <v>200</v>
       </c>
       <c r="Y8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
-        <v>200</v>
-      </c>
       <c r="AA8" s="3">
         <v>200</v>
       </c>
       <c r="AB8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -913,17 +920,17 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>-100</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
@@ -931,22 +938,25 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -966,7 +976,7 @@
         <v>400</v>
       </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -984,22 +994,22 @@
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
-        <v>200</v>
-      </c>
       <c r="R10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
@@ -1020,7 +1030,7 @@
         <v>200</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB10" s="3">
         <v>100</v>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1101,16 +1115,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1119,10 +1133,10 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
@@ -1131,7 +1145,7 @@
         <v>100</v>
       </c>
       <c r="Z12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,34 +1242,37 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1269,23 +1289,23 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1293,14 +1313,14 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>200</v>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="3">
         <v>200</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,14 +1363,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
-      </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1377,22 +1400,25 @@
         <v>0</v>
       </c>
       <c r="Y15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,16 +1445,17 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1437,31 +1464,31 @@
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
@@ -1473,13 +1500,13 @@
         <v>400</v>
       </c>
       <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
-        <v>200</v>
-      </c>
       <c r="V17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
@@ -1488,30 +1515,33 @@
         <v>300</v>
       </c>
       <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
@@ -1520,25 +1550,25 @@
         <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1547,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1571,22 +1601,25 @@
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1661,11 +1695,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1673,11 +1707,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1697,45 +1731,48 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>100</v>
@@ -1744,13 +1781,13 @@
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
@@ -1768,30 +1805,33 @@
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-400</v>
       </c>
       <c r="AC21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1802,8 +1842,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
@@ -1841,8 +1881,8 @@
       <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1865,43 +1905,46 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1910,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1934,22 +1977,25 @@
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-400</v>
       </c>
       <c r="AC23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,43 +2163,46 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -2159,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -2183,57 +2235,60 @@
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-400</v>
       </c>
       <c r="AC26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -2242,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -2266,22 +2321,25 @@
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-400</v>
       </c>
       <c r="AC27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,8 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2398,21 +2459,21 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2420,11 +2481,11 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2434,20 +2495,23 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2657,11 +2727,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2669,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2693,45 +2763,48 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2740,22 +2813,22 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
@@ -2764,22 +2837,25 @@
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-400</v>
       </c>
       <c r="AC33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,43 +2937,46 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2906,22 +2985,22 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
@@ -2930,110 +3009,116 @@
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-400</v>
       </c>
       <c r="AC35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,22 +3180,23 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
-        <v>200</v>
-      </c>
       <c r="G41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
@@ -3118,11 +3205,11 @@
         <v>400</v>
       </c>
       <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
@@ -3136,7 +3223,7 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -3166,19 +3253,22 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,22 +3350,25 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -3284,7 +3377,7 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -3299,10 +3392,10 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
@@ -3311,7 +3404,7 @@
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -3320,10 +3413,10 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
@@ -3338,13 +3431,16 @@
         <v>100</v>
       </c>
       <c r="AB43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3385,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3435,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3450,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3459,19 +3558,19 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3480,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3509,19 +3608,22 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>700</v>
       </c>
       <c r="G46" s="3">
         <v>700</v>
@@ -3530,34 +3632,34 @@
         <v>700</v>
       </c>
       <c r="I46" s="3">
+        <v>700</v>
+      </c>
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>200</v>
-      </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3566,19 +3668,19 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z46" s="3">
         <v>200</v>
@@ -3590,10 +3692,13 @@
         <v>200</v>
       </c>
       <c r="AC46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3613,7 +3718,7 @@
         <v>100</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3630,8 +3735,8 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
@@ -3648,8 +3753,8 @@
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3675,13 +3780,16 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3713,8 +3821,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>10</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>10</v>
@@ -3731,8 +3839,8 @@
       <c r="T48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3790,21 +3901,21 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="N49" s="3">
-        <v>500</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
       </c>
       <c r="P49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q49" s="3">
         <v>600</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
@@ -3812,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U49" s="3">
         <v>100</v>
@@ -3824,7 +3935,7 @@
         <v>100</v>
       </c>
       <c r="X49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y49" s="3">
         <v>200</v>
@@ -3833,16 +3944,19 @@
         <v>200</v>
       </c>
       <c r="AA49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB49" s="3">
         <v>300</v>
       </c>
-      <c r="AB49" s="3">
-        <v>200</v>
-      </c>
       <c r="AC49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4085,13 +4205,16 @@
         <v>0</v>
       </c>
       <c r="AB52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,19 +4296,22 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>800</v>
       </c>
       <c r="G54" s="3">
         <v>800</v>
@@ -4197,52 +4323,52 @@
         <v>800</v>
       </c>
       <c r="J54" s="3">
+        <v>800</v>
+      </c>
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>800</v>
       </c>
       <c r="O54" s="3">
         <v>800</v>
       </c>
       <c r="P54" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
-        <v>200</v>
-      </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
+        <v>200</v>
+      </c>
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
-        <v>200</v>
-      </c>
       <c r="V54" s="3">
+        <v>200</v>
+      </c>
+      <c r="W54" s="3">
         <v>400</v>
-      </c>
-      <c r="W54" s="3">
-        <v>300</v>
       </c>
       <c r="X54" s="3">
         <v>300</v>
       </c>
       <c r="Y54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z54" s="3">
         <v>400</v>
@@ -4251,13 +4377,16 @@
         <v>400</v>
       </c>
       <c r="AB54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC54" s="3">
         <v>500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4333,7 +4464,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -4351,22 +4482,22 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
@@ -4390,7 +4521,7 @@
         <v>500</v>
       </c>
       <c r="Z57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA57" s="3">
         <v>400</v>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4434,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -4467,13 +4601,13 @@
         <v>100</v>
       </c>
       <c r="X58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>100</v>
@@ -4482,36 +4616,39 @@
         <v>100</v>
       </c>
       <c r="AC58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
       </c>
       <c r="K59" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
@@ -4523,16 +4660,16 @@
         <v>700</v>
       </c>
       <c r="O59" s="3">
+        <v>700</v>
+      </c>
+      <c r="P59" s="3">
         <v>800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1000</v>
       </c>
       <c r="Q59" s="3">
         <v>1000</v>
       </c>
       <c r="R59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="S59" s="3">
         <v>800</v>
@@ -4541,13 +4678,13 @@
         <v>800</v>
       </c>
       <c r="U59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="V59" s="3">
         <v>600</v>
       </c>
       <c r="W59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
@@ -4559,16 +4696,19 @@
         <v>400</v>
       </c>
       <c r="AA59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AB59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4576,82 +4716,85 @@
         <v>900</v>
       </c>
       <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1000</v>
       </c>
       <c r="X60" s="3">
         <v>1000</v>
       </c>
       <c r="Y60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4674,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -4689,7 +4832,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4719,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
@@ -4731,10 +4874,13 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4754,10 +4900,10 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4775,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -4787,10 +4933,10 @@
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
@@ -4811,13 +4957,16 @@
         <v>100</v>
       </c>
       <c r="AB62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,8 +5220,11 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5074,40 +5232,40 @@
         <v>1000</v>
       </c>
       <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>1100</v>
       </c>
       <c r="I66" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="J66" s="3">
         <v>1300</v>
       </c>
       <c r="K66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1100</v>
       </c>
       <c r="O66" s="3">
         <v>1100</v>
       </c>
       <c r="P66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="Q66" s="3">
         <v>1500</v>
@@ -5116,40 +5274,43 @@
         <v>1500</v>
       </c>
       <c r="S66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1400</v>
       </c>
       <c r="V66" s="3">
         <v>1400</v>
       </c>
       <c r="W66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1000</v>
       </c>
       <c r="Z66" s="3">
         <v>1000</v>
       </c>
       <c r="AA66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB66" s="3">
         <v>800</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>700</v>
       </c>
       <c r="AC66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15300</v>
+        <v>-15200</v>
       </c>
       <c r="E72" s="3">
         <v>-15300</v>
       </c>
       <c r="F72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-15400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-15900</v>
       </c>
       <c r="K72" s="3">
         <v>-15900</v>
       </c>
       <c r="L72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="M72" s="3">
         <v>-16000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-16300</v>
       </c>
       <c r="P72" s="3">
         <v>-16300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-16300</v>
       </c>
       <c r="S72" s="3">
         <v>-16300</v>
       </c>
       <c r="T72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-16200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-15400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-15300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-15000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,8 +6026,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5852,82 +6038,85 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
       </c>
       <c r="G76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-800</v>
       </c>
       <c r="M76" s="3">
         <v>-800</v>
       </c>
       <c r="N76" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1300</v>
       </c>
       <c r="S76" s="3">
         <v>-1300</v>
       </c>
       <c r="T76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="U76" s="3">
         <v>-1200</v>
       </c>
       <c r="V76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,131 +6198,137 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -6142,22 +6337,22 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
@@ -6166,22 +6361,25 @@
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-400</v>
       </c>
       <c r="AC81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6244,13 +6443,13 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>-100</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6280,10 +6479,10 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
@@ -6291,11 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-      <c r="AC83" s="3" t="s">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>200</v>
-      </c>
       <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>200</v>
-      </c>
       <c r="P89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,13 +7043,14 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6846,8 +7067,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -6855,14 +7076,14 @@
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7095,8 +7325,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -7104,8 +7334,8 @@
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -7128,26 +7358,26 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>10</v>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
+      <c r="AA94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7554,16 +7800,16 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -7572,37 +7818,40 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>200</v>
       </c>
       <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,34 +7933,37 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>200</v>
-      </c>
       <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -7723,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -7759,12 +8011,15 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>CLRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
@@ -807,7 +811,7 @@
         <v>500</v>
       </c>
       <c r="J8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -825,28 +829,28 @@
         <v>400</v>
       </c>
       <c r="P8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
-        <v>200</v>
-      </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>200</v>
@@ -855,22 +859,25 @@
         <v>200</v>
       </c>
       <c r="Z8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
-      <c r="AA8" s="3">
-        <v>200</v>
-      </c>
       <c r="AB8" s="3">
         <v>200</v>
       </c>
       <c r="AC8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -923,17 +930,17 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>-100</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
@@ -941,27 +948,30 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
@@ -979,7 +989,7 @@
         <v>400</v>
       </c>
       <c r="J10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -997,22 +1007,22 @@
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
-        <v>200</v>
-      </c>
       <c r="S10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
       <c r="U10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V10" s="3">
         <v>200</v>
@@ -1033,7 +1043,7 @@
         <v>200</v>
       </c>
       <c r="AB10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC10" s="3">
         <v>100</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1085,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1118,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1136,10 +1150,10 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="3">
         <v>100</v>
@@ -1148,7 +1162,7 @@
         <v>100</v>
       </c>
       <c r="AA12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,37 +1262,40 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1292,23 +1312,23 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1316,14 +1336,14 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>200</v>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="3">
         <v>200</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,14 +1389,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>100</v>
-      </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1403,22 +1426,25 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,19 +1472,20 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1467,31 +1494,31 @@
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
@@ -1503,13 +1530,13 @@
         <v>400</v>
       </c>
       <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
-        <v>200</v>
-      </c>
       <c r="W17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
@@ -1518,33 +1545,36 @@
         <v>300</v>
       </c>
       <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
@@ -1553,25 +1583,25 @@
         <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1580,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
@@ -1604,22 +1634,25 @@
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1698,11 +1732,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1710,11 +1744,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1734,48 +1768,51 @@
         <v>0</v>
       </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>100</v>
@@ -1784,13 +1821,13 @@
         <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
@@ -1808,22 +1845,25 @@
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-400</v>
       </c>
       <c r="AD21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1833,8 +1873,8 @@
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1845,8 +1885,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1884,8 +1924,8 @@
       <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1908,46 +1948,49 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1956,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -1980,22 +2023,25 @@
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>-400</v>
       </c>
       <c r="AD23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,46 +2215,49 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2214,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -2238,60 +2290,63 @@
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>-400</v>
       </c>
       <c r="AD26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2300,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -2324,22 +2379,25 @@
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-400</v>
       </c>
       <c r="AD27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,94 +2482,100 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2730,11 +2800,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2742,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2766,48 +2836,51 @@
         <v>0</v>
       </c>
       <c r="AD32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2816,22 +2889,22 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
@@ -2840,22 +2913,25 @@
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-400</v>
       </c>
       <c r="AD33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,46 +3016,49 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2988,22 +3067,22 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
@@ -3012,113 +3091,119 @@
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-400</v>
       </c>
       <c r="AD35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3190,16 +3277,16 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
-        <v>200</v>
-      </c>
       <c r="H41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
@@ -3208,11 +3295,11 @@
         <v>400</v>
       </c>
       <c r="K41" s="3">
+        <v>400</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
@@ -3226,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -3256,19 +3343,22 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="3">
         <v>100</v>
       </c>
       <c r="AC41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,25 +3443,28 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -3380,7 +3473,7 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
@@ -3395,10 +3488,10 @@
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
@@ -3407,7 +3500,7 @@
         <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -3416,10 +3509,10 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
@@ -3434,13 +3527,16 @@
         <v>100</v>
       </c>
       <c r="AC43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3484,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3525,22 +3621,25 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3552,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3561,19 +3660,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3582,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3611,22 +3710,25 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>700</v>
       </c>
       <c r="H46" s="3">
         <v>700</v>
@@ -3635,34 +3737,34 @@
         <v>700</v>
       </c>
       <c r="J46" s="3">
+        <v>700</v>
+      </c>
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
       <c r="Q46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -3671,19 +3773,19 @@
         <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>100</v>
       </c>
       <c r="Z46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA46" s="3">
         <v>200</v>
@@ -3695,10 +3797,13 @@
         <v>200</v>
       </c>
       <c r="AD46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3721,7 +3826,7 @@
         <v>100</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3738,8 +3843,8 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>10</v>
@@ -3756,8 +3861,8 @@
       <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3792,7 +3900,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3824,8 +3932,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>10</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>10</v>
@@ -3842,8 +3950,8 @@
       <c r="U48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3904,21 +4015,21 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="O49" s="3">
-        <v>500</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
       </c>
       <c r="Q49" s="3">
+        <v>500</v>
+      </c>
+      <c r="R49" s="3">
         <v>600</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
@@ -3926,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V49" s="3">
         <v>100</v>
@@ -3938,7 +4049,7 @@
         <v>100</v>
       </c>
       <c r="Y49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z49" s="3">
         <v>200</v>
@@ -3947,16 +4058,19 @@
         <v>200</v>
       </c>
       <c r="AB49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC49" s="3">
         <v>300</v>
       </c>
-      <c r="AC49" s="3">
-        <v>200</v>
-      </c>
       <c r="AD49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4208,13 +4328,16 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,22 +4422,25 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>800</v>
       </c>
       <c r="H54" s="3">
         <v>800</v>
@@ -4326,52 +4452,52 @@
         <v>800</v>
       </c>
       <c r="K54" s="3">
+        <v>800</v>
+      </c>
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>800</v>
       </c>
       <c r="P54" s="3">
         <v>800</v>
       </c>
       <c r="Q54" s="3">
+        <v>800</v>
+      </c>
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
-        <v>200</v>
-      </c>
       <c r="T54" s="3">
         <v>200</v>
       </c>
       <c r="U54" s="3">
+        <v>200</v>
+      </c>
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
-        <v>200</v>
-      </c>
       <c r="W54" s="3">
+        <v>200</v>
+      </c>
+      <c r="X54" s="3">
         <v>400</v>
-      </c>
-      <c r="X54" s="3">
-        <v>300</v>
       </c>
       <c r="Y54" s="3">
         <v>300</v>
       </c>
       <c r="Z54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA54" s="3">
         <v>400</v>
@@ -4380,13 +4506,16 @@
         <v>400</v>
       </c>
       <c r="AC54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD54" s="3">
         <v>500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4467,7 +4598,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -4485,22 +4616,22 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
-        <v>200</v>
-      </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
@@ -4524,7 +4655,7 @@
         <v>500</v>
       </c>
       <c r="AA57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB57" s="3">
         <v>400</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4571,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -4604,13 +4738,13 @@
         <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="3">
         <v>100</v>
@@ -4619,39 +4753,42 @@
         <v>100</v>
       </c>
       <c r="AD58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>1000</v>
       </c>
       <c r="L59" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
@@ -4663,16 +4800,16 @@
         <v>700</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1000</v>
       </c>
       <c r="R59" s="3">
         <v>1000</v>
       </c>
       <c r="S59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T59" s="3">
         <v>800</v>
@@ -4681,13 +4818,13 @@
         <v>800</v>
       </c>
       <c r="V59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
       </c>
       <c r="X59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Y59" s="3">
         <v>400</v>
@@ -4699,102 +4836,108 @@
         <v>400</v>
       </c>
       <c r="AB59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AC59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
       </c>
       <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1000</v>
       </c>
       <c r="Y60" s="3">
         <v>1000</v>
       </c>
       <c r="Z60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4820,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -4835,7 +4978,7 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4865,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
@@ -4877,10 +5020,13 @@
         <v>0</v>
       </c>
       <c r="AD61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4903,10 +5049,10 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4924,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -4936,10 +5082,10 @@
         <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W62" s="3">
         <v>100</v>
@@ -4960,13 +5106,16 @@
         <v>100</v>
       </c>
       <c r="AC62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,52 +5378,55 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
       <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1100</v>
       </c>
       <c r="J66" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K66" s="3">
         <v>1300</v>
       </c>
       <c r="L66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1100</v>
       </c>
       <c r="P66" s="3">
         <v>1100</v>
       </c>
       <c r="Q66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="R66" s="3">
         <v>1500</v>
@@ -5277,40 +5435,43 @@
         <v>1500</v>
       </c>
       <c r="T66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1400</v>
       </c>
       <c r="W66" s="3">
         <v>1400</v>
       </c>
       <c r="X66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>1000</v>
       </c>
       <c r="AA66" s="3">
         <v>1000</v>
       </c>
       <c r="AB66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC66" s="3">
         <v>800</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>700</v>
       </c>
       <c r="AD66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5694,85 +5868,88 @@
         <v>-15200</v>
       </c>
       <c r="E72" s="3">
-        <v>-15300</v>
+        <v>-15200</v>
       </c>
       <c r="F72" s="3">
         <v>-15300</v>
       </c>
       <c r="G72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-15400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-15900</v>
       </c>
       <c r="L72" s="3">
         <v>-15900</v>
       </c>
       <c r="M72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="N72" s="3">
         <v>-16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-16300</v>
       </c>
       <c r="Q72" s="3">
         <v>-16300</v>
       </c>
       <c r="R72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="S72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-16300</v>
       </c>
       <c r="T72" s="3">
         <v>-16300</v>
       </c>
       <c r="U72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="V72" s="3">
         <v>-16200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-15500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-15400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-15300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-15000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-14700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6041,82 +6227,85 @@
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
       </c>
       <c r="H76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-800</v>
       </c>
       <c r="N76" s="3">
         <v>-800</v>
       </c>
       <c r="O76" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1300</v>
       </c>
       <c r="T76" s="3">
         <v>-1300</v>
       </c>
       <c r="U76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="V76" s="3">
         <v>-1200</v>
       </c>
       <c r="W76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="X76" s="3">
         <v>-1000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,137 +6390,143 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -6340,22 +6535,22 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
@@ -6364,22 +6559,25 @@
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-400</v>
       </c>
       <c r="AD81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6446,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>-100</v>
       </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6482,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB83" s="3">
         <v>0</v>
@@ -6493,11 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-      <c r="AD83" s="3" t="s">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>200</v>
-      </c>
       <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>200</v>
-      </c>
       <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7070,8 +7291,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
@@ -7079,14 +7300,14 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7328,8 +7558,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
@@ -7337,8 +7567,8 @@
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -7361,26 +7591,26 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>10</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
+      <c r="AB94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7803,16 +8049,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7821,37 +8067,40 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
         <v>200</v>
       </c>
       <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,37 +8185,40 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>200</v>
-      </c>
       <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7978,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -8014,12 +8266,15 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
